--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H2">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I2">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J2">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N2">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O2">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P2">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q2">
-        <v>412.0349811100515</v>
+        <v>485.2623908310734</v>
       </c>
       <c r="R2">
-        <v>3708.314829990463</v>
+        <v>4367.361517479661</v>
       </c>
       <c r="S2">
-        <v>0.6074354080767034</v>
+        <v>0.5796856608858267</v>
       </c>
       <c r="T2">
-        <v>0.6074354080767036</v>
+        <v>0.5796856608858265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H3">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I3">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J3">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.606707</v>
       </c>
       <c r="O3">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P3">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q3">
-        <v>112.6616132504418</v>
+        <v>114.7033254789007</v>
       </c>
       <c r="R3">
-        <v>1013.954519253976</v>
+        <v>1032.329929310106</v>
       </c>
       <c r="S3">
-        <v>0.1660894248226061</v>
+        <v>0.13702251460733</v>
       </c>
       <c r="T3">
-        <v>0.1660894248226062</v>
+        <v>0.1370225146073299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H4">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I4">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J4">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N4">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O4">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P4">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q4">
-        <v>8.240959142252443</v>
+        <v>12.67150453758934</v>
       </c>
       <c r="R4">
-        <v>74.16863228027199</v>
+        <v>114.043540838304</v>
       </c>
       <c r="S4">
-        <v>0.01214909075445836</v>
+        <v>0.01513714975873186</v>
       </c>
       <c r="T4">
-        <v>0.01214909075445837</v>
+        <v>0.01513714975873185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H5">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I5">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J5">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N5">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O5">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P5">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q5">
-        <v>61.46758333983378</v>
+        <v>50.67065062283934</v>
       </c>
       <c r="R5">
-        <v>553.2082500585039</v>
+        <v>456.035855605554</v>
       </c>
       <c r="S5">
-        <v>0.09061751618498652</v>
+        <v>0.06053024126495848</v>
       </c>
       <c r="T5">
-        <v>0.09061751618498654</v>
+        <v>0.06053024126495847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H6">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I6">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J6">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N6">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O6">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P6">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q6">
-        <v>6.920025315824889</v>
+        <v>0.426278289962</v>
       </c>
       <c r="R6">
-        <v>62.280227842424</v>
+        <v>3.836504609658</v>
       </c>
       <c r="S6">
-        <v>0.010201727023989</v>
+        <v>0.000509224322566394</v>
       </c>
       <c r="T6">
-        <v>0.010201727023989</v>
+        <v>0.0005092243225663938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.786555</v>
       </c>
       <c r="I7">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J7">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N7">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O7">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P7">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q7">
-        <v>19.39820487729333</v>
+        <v>22.43902816248333</v>
       </c>
       <c r="R7">
-        <v>174.58384389564</v>
+        <v>201.95125346235</v>
       </c>
       <c r="S7">
-        <v>0.02859746632154753</v>
+        <v>0.02680525652879815</v>
       </c>
       <c r="T7">
-        <v>0.02859746632154754</v>
+        <v>0.02680525652879814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.786555</v>
       </c>
       <c r="I8">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J8">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.606707</v>
       </c>
       <c r="O8">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P8">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q8">
         <v>5.303998824931666</v>
@@ -948,10 +948,10 @@
         <v>47.735989424385</v>
       </c>
       <c r="S8">
-        <v>0.007819328062828222</v>
+        <v>0.006336060906971236</v>
       </c>
       <c r="T8">
-        <v>0.007819328062828226</v>
+        <v>0.006336060906971235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.786555</v>
       </c>
       <c r="I9">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J9">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N9">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O9">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P9">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q9">
-        <v>0.3879763154966666</v>
+        <v>0.5859433010933333</v>
       </c>
       <c r="R9">
-        <v>3.49178683947</v>
+        <v>5.27348970984</v>
       </c>
       <c r="S9">
-        <v>0.0005719673385325204</v>
+        <v>0.0006999572523108498</v>
       </c>
       <c r="T9">
-        <v>0.0005719673385325206</v>
+        <v>0.0006999572523108497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.786555</v>
       </c>
       <c r="I10">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J10">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N10">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O10">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P10">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q10">
-        <v>2.893833848101667</v>
+        <v>2.343062594218333</v>
       </c>
       <c r="R10">
-        <v>26.044504632915</v>
+        <v>21.087563347965</v>
       </c>
       <c r="S10">
-        <v>0.004266184244095315</v>
+        <v>0.002798980127225924</v>
       </c>
       <c r="T10">
-        <v>0.004266184244095317</v>
+        <v>0.002798980127225924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.786555</v>
       </c>
       <c r="I11">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J11">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N11">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O11">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P11">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q11">
-        <v>0.3257880398183333</v>
+        <v>0.019711543145</v>
       </c>
       <c r="R11">
-        <v>2.932092358365</v>
+        <v>0.177403888305</v>
       </c>
       <c r="S11">
-        <v>0.0004802873541960318</v>
+        <v>2.354705233908501E-05</v>
       </c>
       <c r="T11">
-        <v>0.000480287354196032</v>
+        <v>2.354705233908501E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H12">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I12">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J12">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N12">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O12">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P12">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q12">
-        <v>11.24067764781778</v>
+        <v>57.16615100699222</v>
       </c>
       <c r="R12">
-        <v>101.16609883036</v>
+        <v>514.49535906293</v>
       </c>
       <c r="S12">
-        <v>0.01657137361411837</v>
+        <v>0.06828964834887274</v>
       </c>
       <c r="T12">
-        <v>0.01657137361411838</v>
+        <v>0.06828964834887273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H13">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I13">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J13">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.606707</v>
       </c>
       <c r="O13">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P13">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q13">
-        <v>3.073508162873889</v>
+        <v>13.51258154191811</v>
       </c>
       <c r="R13">
-        <v>27.661573465865</v>
+        <v>121.613233877263</v>
       </c>
       <c r="S13">
-        <v>0.004531065979186192</v>
+        <v>0.01614188511082702</v>
       </c>
       <c r="T13">
-        <v>0.004531065979186194</v>
+        <v>0.01614188511082701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H14">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I14">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J14">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N14">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O14">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P14">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q14">
-        <v>0.2248206328922222</v>
+        <v>1.492761762643555</v>
       </c>
       <c r="R14">
-        <v>2.02338569603</v>
+        <v>13.434855863792</v>
       </c>
       <c r="S14">
-        <v>0.0003314379097547411</v>
+        <v>0.001783226158205109</v>
       </c>
       <c r="T14">
-        <v>0.0003314379097547413</v>
+        <v>0.001783226158205108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H15">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I15">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J15">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N15">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O15">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P15">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q15">
-        <v>1.676889880203889</v>
+        <v>5.969236684851889</v>
       </c>
       <c r="R15">
-        <v>15.092008921835</v>
+        <v>53.72313016366699</v>
       </c>
       <c r="S15">
-        <v>0.002472125754801587</v>
+        <v>0.007130742002725821</v>
       </c>
       <c r="T15">
-        <v>0.002472125754801587</v>
+        <v>0.007130742002725819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H16">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I16">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J16">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N16">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O16">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P16">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q16">
-        <v>0.1887843932094445</v>
+        <v>0.05021755148433333</v>
       </c>
       <c r="R16">
-        <v>1.699059538885</v>
+        <v>0.451957963359</v>
       </c>
       <c r="S16">
-        <v>0.0002783121098571557</v>
+        <v>5.998897724261827E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002783121098571558</v>
+        <v>5.998897724261825E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H17">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I17">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J17">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N17">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O17">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P17">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q17">
-        <v>1.258147295424</v>
+        <v>4.423070287665555</v>
       </c>
       <c r="R17">
-        <v>11.323325658816</v>
+        <v>39.80763258899</v>
       </c>
       <c r="S17">
-        <v>0.001854801778619748</v>
+        <v>0.005283719635594904</v>
       </c>
       <c r="T17">
-        <v>0.001854801778619749</v>
+        <v>0.005283719635594902</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H18">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I18">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J18">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.606707</v>
       </c>
       <c r="O18">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P18">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q18">
-        <v>0.344011820616</v>
+        <v>1.045498024178778</v>
       </c>
       <c r="R18">
-        <v>3.096106385544</v>
+        <v>9.409482217609</v>
       </c>
       <c r="S18">
-        <v>0.0005071534462344026</v>
+        <v>0.00124893299903779</v>
       </c>
       <c r="T18">
-        <v>0.0005071534462344029</v>
+        <v>0.00124893299903779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H19">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I19">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J19">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N19">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O19">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P19">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q19">
-        <v>0.025163738352</v>
+        <v>0.1154982464728889</v>
       </c>
       <c r="R19">
-        <v>0.2264736451679999</v>
+        <v>1.039484218256</v>
       </c>
       <c r="S19">
-        <v>3.709720381847847E-05</v>
+        <v>0.0001379721128256524</v>
       </c>
       <c r="T19">
-        <v>3.709720381847849E-05</v>
+        <v>0.0001379721128256524</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H20">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I20">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J20">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N20">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O20">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P20">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q20">
-        <v>0.187691039064</v>
+        <v>0.4618529139312221</v>
       </c>
       <c r="R20">
-        <v>1.689219351576</v>
+        <v>4.156676225380999</v>
       </c>
       <c r="S20">
-        <v>0.0002767002515151257</v>
+        <v>0.0005517211238763931</v>
       </c>
       <c r="T20">
-        <v>0.0002767002515151258</v>
+        <v>0.000551721123876393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H21">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I21">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J21">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N21">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O21">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P21">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q21">
-        <v>0.021130271784</v>
+        <v>0.003885441926333332</v>
       </c>
       <c r="R21">
-        <v>0.190172446056</v>
+        <v>0.034968977337</v>
       </c>
       <c r="S21">
-        <v>3.115093584847225E-05</v>
+        <v>4.64147853503056E-06</v>
       </c>
       <c r="T21">
-        <v>3.115093584847226E-05</v>
+        <v>4.641478535030559E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H22">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I22">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J22">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N22">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O22">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P22">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q22">
-        <v>20.86004445346488</v>
+        <v>42.73067281748222</v>
       </c>
       <c r="R22">
-        <v>187.740400081184</v>
+        <v>384.57605535734</v>
       </c>
       <c r="S22">
-        <v>0.03075255790406847</v>
+        <v>0.05104528762238474</v>
       </c>
       <c r="T22">
-        <v>0.03075255790406848</v>
+        <v>0.05104528762238472</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H23">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I23">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J23">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.606707</v>
       </c>
       <c r="O23">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P23">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q23">
-        <v>5.703705676328444</v>
+        <v>10.10041240517711</v>
       </c>
       <c r="R23">
-        <v>51.33335108695599</v>
+        <v>90.903711646594</v>
       </c>
       <c r="S23">
-        <v>0.008408588939987598</v>
+        <v>0.01206576967625073</v>
       </c>
       <c r="T23">
-        <v>0.008408588939987601</v>
+        <v>0.01206576967625073</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H24">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I24">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J24">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N24">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O24">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P24">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q24">
-        <v>0.417214027759111</v>
+        <v>1.115812650499556</v>
       </c>
       <c r="R24">
-        <v>3.754926249831999</v>
+        <v>10.042313854496</v>
       </c>
       <c r="S24">
-        <v>0.0006150705275664234</v>
+        <v>0.001332929577793652</v>
       </c>
       <c r="T24">
-        <v>0.0006150705275664236</v>
+        <v>0.001332929577793652</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H25">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I25">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J25">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N25">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O25">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P25">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q25">
-        <v>3.111911802880444</v>
+        <v>4.461897386082889</v>
       </c>
       <c r="R25">
-        <v>28.007206225924</v>
+        <v>40.157076474746</v>
       </c>
       <c r="S25">
-        <v>0.004587681877856169</v>
+        <v>0.005330101783957534</v>
       </c>
       <c r="T25">
-        <v>0.004587681877856171</v>
+        <v>0.005330101783957533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H26">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I26">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J26">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N26">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O26">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P26">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q26">
-        <v>0.3503392729382222</v>
+        <v>0.03753671927133333</v>
       </c>
       <c r="R26">
-        <v>3.153053456444</v>
+        <v>0.337830473442</v>
       </c>
       <c r="S26">
-        <v>0.0005164815828238744</v>
+        <v>4.484068481182462E-05</v>
       </c>
       <c r="T26">
-        <v>0.0005164815828238745</v>
+        <v>4.48406848118246E-05</v>
       </c>
     </row>
   </sheetData>
